--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H2">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.280459</v>
+        <v>0.04214833333333334</v>
       </c>
       <c r="N2">
-        <v>0.841377</v>
+        <v>0.126445</v>
       </c>
       <c r="O2">
-        <v>0.2694138407699542</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="P2">
-        <v>0.2694138407699542</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="Q2">
-        <v>0.4528106845923334</v>
+        <v>0.07980132212555555</v>
       </c>
       <c r="R2">
-        <v>4.075296161331</v>
+        <v>0.7182118991299999</v>
       </c>
       <c r="S2">
-        <v>0.02747479617075934</v>
+        <v>0.001767232182689481</v>
       </c>
       <c r="T2">
-        <v>0.02747479617075934</v>
+        <v>0.001767232182689481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H3">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +620,25 @@
         <v>0.30541</v>
       </c>
       <c r="N3">
-        <v>0.9162299999999999</v>
+        <v>0.91623</v>
       </c>
       <c r="O3">
-        <v>0.2933822095548785</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="P3">
-        <v>0.2933822095548786</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="Q3">
-        <v>0.4930949307433333</v>
+        <v>0.5782463946466666</v>
       </c>
       <c r="R3">
-        <v>4.437854376689999</v>
+        <v>5.204217551819999</v>
       </c>
       <c r="S3">
-        <v>0.02991908798972972</v>
+        <v>0.01280549758982627</v>
       </c>
       <c r="T3">
-        <v>0.02991908798972973</v>
+        <v>0.01280549758982627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H4">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4360473333333334</v>
+        <v>0.9703840000000001</v>
       </c>
       <c r="N4">
-        <v>1.308142</v>
+        <v>2.911152</v>
       </c>
       <c r="O4">
-        <v>0.4188747261839691</v>
+        <v>0.7362871466050487</v>
       </c>
       <c r="P4">
-        <v>0.4188747261839691</v>
+        <v>0.7362871466050488</v>
       </c>
       <c r="Q4">
-        <v>0.7040133906251111</v>
+        <v>1.837271371018667</v>
       </c>
       <c r="R4">
-        <v>6.336120515626001</v>
+        <v>16.535442339168</v>
       </c>
       <c r="S4">
-        <v>0.0427168021141646</v>
+        <v>0.0406871090442552</v>
       </c>
       <c r="T4">
-        <v>0.0427168021141646</v>
+        <v>0.0406871090442552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.614534333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H5">
-        <v>4.843603</v>
+        <v>12.47932</v>
       </c>
       <c r="I5">
-        <v>0.10197989862822</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J5">
-        <v>0.10197989862822</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01908066666666667</v>
+        <v>0.04214833333333334</v>
       </c>
       <c r="N5">
-        <v>0.05724199999999999</v>
+        <v>0.126445</v>
       </c>
       <c r="O5">
-        <v>0.01832922349119802</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="P5">
-        <v>0.01832922349119802</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="Q5">
-        <v>0.03080639143622222</v>
+        <v>0.1753275130444445</v>
       </c>
       <c r="R5">
-        <v>0.277257522926</v>
+        <v>1.5779476174</v>
       </c>
       <c r="S5">
-        <v>0.001869212353566363</v>
+        <v>0.003882697871540998</v>
       </c>
       <c r="T5">
-        <v>0.001869212353566363</v>
+        <v>0.003882697871540998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H6">
         <v>12.47932</v>
       </c>
       <c r="I6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.280459</v>
+        <v>0.30541</v>
       </c>
       <c r="N6">
-        <v>0.841377</v>
+        <v>0.91623</v>
       </c>
       <c r="O6">
-        <v>0.2694138407699542</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="P6">
-        <v>0.2694138407699542</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="Q6">
-        <v>1.166645869293333</v>
+        <v>1.270436373733334</v>
       </c>
       <c r="R6">
-        <v>10.49981282364</v>
+        <v>11.4339273636</v>
       </c>
       <c r="S6">
-        <v>0.07078754665683386</v>
+        <v>0.02813432141122233</v>
       </c>
       <c r="T6">
-        <v>0.07078754665683386</v>
+        <v>0.02813432141122233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H7">
         <v>12.47932</v>
       </c>
       <c r="I7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.30541</v>
+        <v>0.9703840000000001</v>
       </c>
       <c r="N7">
-        <v>0.9162299999999999</v>
+        <v>2.911152</v>
       </c>
       <c r="O7">
-        <v>0.2933822095548785</v>
+        <v>0.7362871466050487</v>
       </c>
       <c r="P7">
-        <v>0.2933822095548786</v>
+        <v>0.7362871466050488</v>
       </c>
       <c r="Q7">
-        <v>1.270436373733333</v>
+        <v>4.036577486293334</v>
       </c>
       <c r="R7">
-        <v>11.4339273636</v>
+        <v>36.32919737664001</v>
       </c>
       <c r="S7">
-        <v>0.07708515192760305</v>
+        <v>0.08939162223996455</v>
       </c>
       <c r="T7">
-        <v>0.07708515192760307</v>
+        <v>0.08939162223996457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.159773333333333</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H8">
-        <v>12.47932</v>
+        <v>3.720637</v>
       </c>
       <c r="I8">
-        <v>0.2627465109236077</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J8">
-        <v>0.2627465109236077</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4360473333333334</v>
+        <v>0.04214833333333334</v>
       </c>
       <c r="N8">
-        <v>1.308142</v>
+        <v>0.126445</v>
       </c>
       <c r="O8">
-        <v>0.4188747261839691</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="P8">
-        <v>0.4188747261839691</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="Q8">
-        <v>1.813858069271111</v>
+        <v>0.05227288282944444</v>
       </c>
       <c r="R8">
-        <v>16.32472262344</v>
+        <v>0.470455945465</v>
       </c>
       <c r="S8">
-        <v>0.1100578728189194</v>
+        <v>0.001157603888727645</v>
       </c>
       <c r="T8">
-        <v>0.1100578728189194</v>
+        <v>0.001157603888727646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.159773333333333</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H9">
-        <v>12.47932</v>
+        <v>3.720637</v>
       </c>
       <c r="I9">
-        <v>0.2627465109236077</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J9">
-        <v>0.2627465109236077</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01908066666666667</v>
+        <v>0.30541</v>
       </c>
       <c r="N9">
-        <v>0.05724199999999999</v>
+        <v>0.91623</v>
       </c>
       <c r="O9">
-        <v>0.01832922349119802</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="P9">
-        <v>0.01832922349119802</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="Q9">
-        <v>0.0793712483822222</v>
+        <v>0.3787732487233333</v>
       </c>
       <c r="R9">
-        <v>0.7143412354399999</v>
+        <v>3.40895923851</v>
       </c>
       <c r="S9">
-        <v>0.004815939520251306</v>
+        <v>0.008388085024864015</v>
       </c>
       <c r="T9">
-        <v>0.004815939520251306</v>
+        <v>0.008388085024864017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H10">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I10">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J10">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.280459</v>
+        <v>0.9703840000000001</v>
       </c>
       <c r="N10">
-        <v>0.841377</v>
+        <v>2.911152</v>
       </c>
       <c r="O10">
-        <v>0.2694138407699542</v>
+        <v>0.7362871466050487</v>
       </c>
       <c r="P10">
-        <v>0.2694138407699542</v>
+        <v>0.7362871466050488</v>
       </c>
       <c r="Q10">
-        <v>0.1025741397966667</v>
+        <v>1.203482204869333</v>
       </c>
       <c r="R10">
-        <v>0.9231672581700001</v>
+        <v>10.831339843824</v>
       </c>
       <c r="S10">
-        <v>0.006223800981731751</v>
+        <v>0.0266515945737456</v>
       </c>
       <c r="T10">
-        <v>0.006223800981731752</v>
+        <v>0.02665159457374561</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3657366666666667</v>
+        <v>26.96925</v>
       </c>
       <c r="H11">
-        <v>1.09721</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I11">
-        <v>0.02310126667562748</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J11">
-        <v>0.02310126667562749</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,33 +1113,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.30541</v>
+        <v>0.04214833333333334</v>
       </c>
       <c r="N11">
-        <v>0.9162299999999999</v>
+        <v>0.126445</v>
       </c>
       <c r="O11">
-        <v>0.2933822095548785</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="P11">
-        <v>0.2933822095548786</v>
+        <v>0.03198040784283177</v>
       </c>
       <c r="Q11">
-        <v>0.1116996353666666</v>
+        <v>1.13670893875</v>
       </c>
       <c r="R11">
-        <v>1.0052967183</v>
+        <v>10.23038044875</v>
       </c>
       <c r="S11">
-        <v>0.006777500660812075</v>
+        <v>0.02517287389987364</v>
       </c>
       <c r="T11">
-        <v>0.006777500660812077</v>
+        <v>0.02517287389987364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3657366666666667</v>
+        <v>26.96925</v>
       </c>
       <c r="H12">
-        <v>1.09721</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I12">
-        <v>0.02310126667562748</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J12">
-        <v>0.02310126667562749</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4360473333333334</v>
+        <v>0.30541</v>
       </c>
       <c r="N12">
-        <v>1.308142</v>
+        <v>0.91623</v>
       </c>
       <c r="O12">
-        <v>0.4188747261839691</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="P12">
-        <v>0.4188747261839691</v>
+        <v>0.2317324455521195</v>
       </c>
       <c r="Q12">
-        <v>0.1594784982022222</v>
+        <v>8.236678642499999</v>
       </c>
       <c r="R12">
-        <v>1.43530648382</v>
+        <v>74.13010778249999</v>
       </c>
       <c r="S12">
-        <v>0.009676536753256313</v>
+        <v>0.1824045415262069</v>
       </c>
       <c r="T12">
-        <v>0.009676536753256314</v>
+        <v>0.1824045415262068</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,303 +1210,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3657366666666667</v>
+        <v>26.96925</v>
       </c>
       <c r="H13">
-        <v>1.09721</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I13">
-        <v>0.02310126667562748</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J13">
-        <v>0.02310126667562749</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01908066666666667</v>
+        <v>0.9703840000000001</v>
       </c>
       <c r="N13">
-        <v>0.05724199999999999</v>
+        <v>2.911152</v>
       </c>
       <c r="O13">
-        <v>0.01832922349119802</v>
+        <v>0.7362871466050487</v>
       </c>
       <c r="P13">
-        <v>0.01832922349119802</v>
+        <v>0.7362871466050488</v>
       </c>
       <c r="Q13">
-        <v>0.006978499424444444</v>
+        <v>26.170528692</v>
       </c>
       <c r="R13">
-        <v>0.06280649481999999</v>
+        <v>235.534758228</v>
       </c>
       <c r="S13">
-        <v>0.0004234282798273412</v>
+        <v>0.5795568207470834</v>
       </c>
       <c r="T13">
-        <v>0.0004234282798273413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>9.691843666666665</v>
-      </c>
-      <c r="H14">
-        <v>29.075531</v>
-      </c>
-      <c r="I14">
-        <v>0.6121723237725447</v>
-      </c>
-      <c r="J14">
-        <v>0.6121723237725448</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.280459</v>
-      </c>
-      <c r="N14">
-        <v>0.841377</v>
-      </c>
-      <c r="O14">
-        <v>0.2694138407699542</v>
-      </c>
-      <c r="P14">
-        <v>0.2694138407699542</v>
-      </c>
-      <c r="Q14">
-        <v>2.718164782909666</v>
-      </c>
-      <c r="R14">
-        <v>24.463483046187</v>
-      </c>
-      <c r="S14">
-        <v>0.1649276969606292</v>
-      </c>
-      <c r="T14">
-        <v>0.1649276969606292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>9.691843666666665</v>
-      </c>
-      <c r="H15">
-        <v>29.075531</v>
-      </c>
-      <c r="I15">
-        <v>0.6121723237725447</v>
-      </c>
-      <c r="J15">
-        <v>0.6121723237725448</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.30541</v>
-      </c>
-      <c r="N15">
-        <v>0.9162299999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.2933822095548785</v>
-      </c>
-      <c r="P15">
-        <v>0.2933822095548786</v>
-      </c>
-      <c r="Q15">
-        <v>2.959985974236666</v>
-      </c>
-      <c r="R15">
-        <v>26.63987376812999</v>
-      </c>
-      <c r="S15">
-        <v>0.1796004689767337</v>
-      </c>
-      <c r="T15">
-        <v>0.1796004689767337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.691843666666665</v>
-      </c>
-      <c r="H16">
-        <v>29.075531</v>
-      </c>
-      <c r="I16">
-        <v>0.6121723237725447</v>
-      </c>
-      <c r="J16">
-        <v>0.6121723237725448</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.4360473333333334</v>
-      </c>
-      <c r="N16">
-        <v>1.308142</v>
-      </c>
-      <c r="O16">
-        <v>0.4188747261839691</v>
-      </c>
-      <c r="P16">
-        <v>0.4188747261839691</v>
-      </c>
-      <c r="Q16">
-        <v>4.226102585933556</v>
-      </c>
-      <c r="R16">
-        <v>38.034923273402</v>
-      </c>
-      <c r="S16">
-        <v>0.2564235144976288</v>
-      </c>
-      <c r="T16">
-        <v>0.2564235144976288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>9.691843666666665</v>
-      </c>
-      <c r="H17">
-        <v>29.075531</v>
-      </c>
-      <c r="I17">
-        <v>0.6121723237725447</v>
-      </c>
-      <c r="J17">
-        <v>0.6121723237725448</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01908066666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.05724199999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.01832922349119802</v>
-      </c>
-      <c r="P17">
-        <v>0.01832922349119802</v>
-      </c>
-      <c r="Q17">
-        <v>0.1849268383891111</v>
-      </c>
-      <c r="R17">
-        <v>1.664341545502</v>
-      </c>
-      <c r="S17">
-        <v>0.01122064333755301</v>
-      </c>
-      <c r="T17">
-        <v>0.01122064333755301</v>
+        <v>0.5795568207470834</v>
       </c>
     </row>
   </sheetData>
